--- a/Pokemon_Server/data/pkm_conquest_move_effects.xlsx
+++ b/Pokemon_Server/data/pkm_conquest_move_effects.xlsx
@@ -31,9 +31,6 @@
     <t>Heals the user by half the damage inflicted.  Only works if $target is asleep.</t>
   </si>
   <si>
-    <t>Inflicts damage.  Has a $effect_chance% chance to poison $target.  This move's critical hit rate is higher than usual.</t>
-  </si>
-  <si>
     <t>Has a $effect_chance% chance to poison $target and an increased chance for a critical hit.</t>
   </si>
   <si>
@@ -43,18 +40,9 @@
     <t>Has double power and wakes $target up if it is asleep.</t>
   </si>
   <si>
-    <t>Inflicts regular damage.  Hits two to three times in one turn, with damage calculated separately for each hit.  The user's range is lowered to 0 on its next turn.</t>
-  </si>
-  <si>
     <t>Hits 2 to 3 times in one turn.  User has 0 range on its next turn.</t>
   </si>
   <si>
-    <t>Inflicts regular damage.  The user's Defense is lowered and its range is lowered to one tile until the beginning of its next turn.  Has a $effect_chance% chance to paralyze $target.</t>
-  </si>
-  <si>
-    <t>Lowers the user's range and Defense until its next turn.  Has a $effect_chance% chance to paralyze $target.</t>
-  </si>
-  <si>
     <t>Inflicts regular damage.  Has a $effect_chance% chance to burn $target.  Can be used if the user is frozen, in which case it thaws out.</t>
   </si>
   <si>
@@ -71,18 +59,6 @@
   </si>
   <si>
     <t>Inflicts regular damage with no additional effect.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  Lowers the user's Attack and Defense afterward.</t>
-  </si>
-  <si>
-    <t>Lowers the user's Attack and Defense.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  Has a $effect_chance% chance to lower $target's range by one tile.</t>
-  </si>
-  <si>
-    <t>Has a $effect_chance% chance to lower $target's range by one tile.</t>
   </si>
   <si>
     <t>Inflicts regular damage.  Always has 100% accuracy.
@@ -92,12 +68,6 @@
     <t>Never misses.</t>
   </si>
   <si>
-    <t>Inflicts regular damage.  The user steals $target's item, if the item can be consumed in battle, and uses it on itself, or destroys it if it would have no effect.</t>
-  </si>
-  <si>
-    <t>Uses $target's item if it is consumable.</t>
-  </si>
-  <si>
     <t>Inflicts regular damage.  Has double power when calculating damage against a poisoned target, on a target-by-target basis.</t>
   </si>
   <si>
@@ -110,12 +80,6 @@
     <t>Has double power against Pokémon with less than half their max HP remaining.</t>
   </si>
   <si>
-    <t>Inflicts regular damage.  Permanently destroys $target's item if the item can be consumed in battle.</t>
-  </si>
-  <si>
-    <t>Permanently destroys $target's item if it is consumable.</t>
-  </si>
-  <si>
     <t>Inflicts regular damage.  Has a $effect_chance% chance to make $target flinch.</t>
   </si>
   <si>
@@ -161,48 +125,12 @@
     <t>Has a $effect_chance% chance to paralyze $target.</t>
   </si>
   <si>
-    <t>Inflicts regular damage.  Has a $effect_chance% chance to lower $target's accuracy.</t>
-  </si>
-  <si>
-    <t>Has a $effect_chance% chance to lower $target's accuracy.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  Has a $effect_chance% chance to lower $target's Speed afterward.</t>
-  </si>
-  <si>
-    <t>Has a $effect_chance% chance to lower $target's Speed.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  Has a $effect_chance% chance to lower $target's Defense afterward.</t>
-  </si>
-  <si>
-    <t>Has a $effect_chance% chance to lower $target's Defense.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  Lowers the user's Attack afterward.</t>
-  </si>
-  <si>
-    <t>Lowers the user's Attack.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  Has a $effect_chance% chance to raise the user's Attack afterward.</t>
-  </si>
-  <si>
-    <t>Has a $effect_chance% chance to raise the user's Attack.</t>
-  </si>
-  <si>
     <t>Inflicts regular damage.  If this move misses, the user takes some damage.</t>
   </si>
   <si>
     <t>Damages the user if it misses.</t>
   </si>
   <si>
-    <t>Inflicts regular damage.  The user's Defense is lowered and its range is lowered to one tile until the beginning of its next turn.</t>
-  </si>
-  <si>
-    <t>Lowers the user's range and Defense until its next turn.</t>
-  </si>
-  <si>
     <t>Inflicts regular damage.  If the move succeeds, it cannot be used again on the next turn.</t>
   </si>
   <si>
@@ -227,98 +155,170 @@
     <t>User moves back one tile, switching places with any Pokémon already there.</t>
   </si>
   <si>
-    <t>Inflicts regular damage.  Hits $target at the beginning of the user's turn two turns after this one, even if the target has moved.
+    <t>Hits $target at the beginning of the turn after next.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  The user carries $target into the sky.  No moves can hit either Pokémon in this state.  At the beginning of the next turn, the user slams $target to the ground, inflicting regular damage.  The user cannot move again that turn.</t>
+  </si>
+  <si>
+    <t>Lifts $target into the sky and hits at the beginning of the next turn.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  The user digs underground, dodging all moves until it attacks.  At the beginning of the next turn, the user hits $target, even if $target has moved, and cannot move again that turn.</t>
+  </si>
+  <si>
+    <t>Digs underground and hits at the beginning of the next turn.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Hits four to five times in one turn, with damage calculated separately each time.</t>
+  </si>
+  <si>
+    <t>Hits 4 to 5 times in one turn.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Hits two to five times in one turn, with damage calculated separately each time.</t>
+  </si>
+  <si>
+    <t>Hits 2 to 5 times in one turn.</t>
+  </si>
+  <si>
+    <t>Has an increased chance for a critical hit.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Has double power if $target has already taken damage this turn.</t>
+  </si>
+  <si>
+    <t>Has double power if $target has already taken damage this turn.</t>
+  </si>
+  <si>
+    <t>Power rises the slower the user is compared to $target.</t>
+  </si>
+  <si>
+    <t>Power rises the faster the user is compared to $target.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Every time this move succeeds, its power doubles; if it fails or is not used for a turn, it resets.</t>
+  </si>
+  <si>
+    <t>Doubles in power with each consecutive successful use.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Has double power if $target has a major status ailment.</t>
+  </si>
+  <si>
+    <t>Has double power if $target has a major status ailment.</t>
+  </si>
+  <si>
+    <t>Inflicts exactly 40 HP in damage, unaffected by stats or types.</t>
+  </si>
+  <si>
+    <t>Inflicts exactly 40 HP in damage.</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>short_effect</t>
+  </si>
+  <si>
+    <t>conquest_move_effect_id</t>
+  </si>
+  <si>
+    <t>Ignores $target''s stat modifiers.</t>
+  </si>
+  <si>
+    <t>Inflicts damage, ignoring $target''s stat modifiers.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  The greater the user''s Speed compared to $target''s, the more power this move has.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  The lower the user''s Speed compared to $target''s, the more power this move has.</t>
+  </si>
+  <si>
+    <t>Inflicts damage based on $target''s Attack stat instead of the user''s.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Damage is calculated using $target''s Attack stat rather than the user''s.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  This move''s critical hit rate is higher than usual.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Hits $target at the beginning of the user''s turn two turns after this one, even if the target has moved.
 In the turn in-between, the user can use this move again, but it will miss any target that already has a Future Sight pending.</t>
   </si>
   <si>
-    <t>Hits $target at the beginning of the turn after next.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  The user carries $target into the sky.  No moves can hit either Pokémon in this state.  At the beginning of the next turn, the user slams $target to the ground, inflicting regular damage.  The user cannot move again that turn.</t>
-  </si>
-  <si>
-    <t>Lifts $target into the sky and hits at the beginning of the next turn.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  The user digs underground, dodging all moves until it attacks.  At the beginning of the next turn, the user hits $target, even if $target has moved, and cannot move again that turn.</t>
-  </si>
-  <si>
-    <t>Digs underground and hits at the beginning of the next turn.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  Hits four to five times in one turn, with damage calculated separately each time.</t>
-  </si>
-  <si>
-    <t>Hits 4 to 5 times in one turn.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  Hits two to five times in one turn, with damage calculated separately each time.</t>
-  </si>
-  <si>
-    <t>Hits 2 to 5 times in one turn.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  This move's critical hit rate is higher than usual.</t>
-  </si>
-  <si>
-    <t>Has an increased chance for a critical hit.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  Damage is calculated using $target's Attack stat rather than the user's.</t>
-  </si>
-  <si>
-    <t>Inflicts damage based on $target's Attack stat instead of the user's.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  Has double power if $target has already taken damage this turn.</t>
-  </si>
-  <si>
-    <t>Has double power if $target has already taken damage this turn.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  The lower the user's Speed compared to $target's, the more power this move has.</t>
-  </si>
-  <si>
-    <t>Power rises the slower the user is compared to $target.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  The greater the user's Speed compared to $target's, the more power this move has.</t>
-  </si>
-  <si>
-    <t>Power rises the faster the user is compared to $target.</t>
-  </si>
-  <si>
-    <t>Inflicts damage, ignoring $target's stat modifiers.</t>
-  </si>
-  <si>
-    <t>Ignores $target's stat modifiers.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  Every time this move succeeds, its power doubles; if it fails or is not used for a turn, it resets.</t>
-  </si>
-  <si>
-    <t>Doubles in power with each consecutive successful use.</t>
-  </si>
-  <si>
-    <t>Inflicts regular damage.  Has double power if $target has a major status ailment.</t>
-  </si>
-  <si>
-    <t>Has double power if $target has a major status ailment.</t>
-  </si>
-  <si>
-    <t>Inflicts exactly 40 HP in damage, unaffected by stats or types.</t>
-  </si>
-  <si>
-    <t>Inflicts exactly 40 HP in damage.</t>
-  </si>
-  <si>
-    <t>effect</t>
-  </si>
-  <si>
-    <t>short_effect</t>
-  </si>
-  <si>
-    <t>conquest_move_effect_id</t>
+    <t>Lowers the user''s range and Defense until its next turn.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  The user''s Defense is lowered and its range is lowered to one tile until the beginning of its next turn.</t>
+  </si>
+  <si>
+    <t>Has a $effect_chance% chance to raise the user''s Attack.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Has a $effect_chance% chance to raise the user''s Attack afterward.</t>
+  </si>
+  <si>
+    <t>Lowers the user''s Attack.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Lowers the user''s Attack afterward.</t>
+  </si>
+  <si>
+    <t>Has a $effect_chance% chance to lower $target''s Defense.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Has a $effect_chance% chance to lower $target''s Defense afterward.</t>
+  </si>
+  <si>
+    <t>Has a $effect_chance% chance to lower $target''s Speed.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Has a $effect_chance% chance to lower $target''s Speed afterward.</t>
+  </si>
+  <si>
+    <t>Has a $effect_chance% chance to lower $target''s accuracy.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Has a $effect_chance% chance to lower $target''s accuracy.</t>
+  </si>
+  <si>
+    <t>Permanently destroys $target''s item if it is consumable.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Permanently destroys $target''s item if the item can be consumed in battle.</t>
+  </si>
+  <si>
+    <t>Uses $target''s item if it is consumable.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  The user steals $target''s item, if the item can be consumed in battle, and uses it on itself, or destroys it if it would have no effect.</t>
+  </si>
+  <si>
+    <t>Has a $effect_chance% chance to lower $target''s range by one tile.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Has a $effect_chance% chance to lower $target''s range by one tile.</t>
+  </si>
+  <si>
+    <t>Lowers the user''s Attack and Defense.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Lowers the user''s Attack and Defense afterward.</t>
+  </si>
+  <si>
+    <t>Lowers the user''s range and Defense until its next turn.  Has a $effect_chance% chance to paralyze $target.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  The user''s Defense is lowered and its range is lowered to one tile until the beginning of its next turn.  Has a $effect_chance% chance to paralyze $target.</t>
+  </si>
+  <si>
+    <t>Inflicts regular damage.  Hits two to three times in one turn, with damage calculated separately for each hit.  The user''s range is lowered to 0 on its next turn.</t>
+  </si>
+  <si>
+    <t>Inflicts damage.  Has a $effect_chance% chance to poison $target.  This move''s critical hit rate is higher than usual.</t>
   </si>
 </sst>
 </file>
@@ -362,9 +362,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,13 +682,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -693,10 +696,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,10 +707,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,10 +729,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,10 +740,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -748,10 +751,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,10 +784,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,10 +795,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,10 +806,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,10 +817,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,10 +828,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,10 +839,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,10 +850,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,10 +861,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -869,10 +872,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,10 +883,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,10 +894,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -902,10 +905,10 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,10 +916,10 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -924,10 +927,10 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,10 +938,10 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,10 +949,10 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,10 +960,10 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -968,10 +971,10 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,10 +982,10 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,10 +993,10 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,10 +1004,10 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1012,10 +1015,10 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1023,10 +1026,10 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,10 +1037,10 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1045,10 +1048,10 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1056,10 +1059,10 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,10 +1070,10 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,10 +1081,10 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1089,10 +1092,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1100,10 +1103,10 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1111,10 +1114,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1122,10 +1125,10 @@
         <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1133,10 +1136,10 @@
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,10 +1147,10 @@
         <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1155,10 +1158,10 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,10 +1169,10 @@
         <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1177,10 +1180,10 @@
         <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,10 +1191,10 @@
         <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1199,10 +1202,10 @@
         <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1210,10 +1213,10 @@
         <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
